--- a/scene_cat_exp_2023.2.2_english/input_files/71_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/71_scenecat_memory_bedrooms_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -517,38 +517,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>53.42105263157895</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N2">
-        <v>31.84210526315789</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O2">
-        <v>42.63157894736842</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>3</v>
       </c>
       <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
         <v>3</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -741,55 +741,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>71.71052631578948</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N5">
-        <v>49.81578947368421</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O5">
-        <v>60.76315789473685</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -823,50 +818,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_i7vab.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>86.40000000000001</v>
+        <v>37</v>
       </c>
       <c r="N6">
-        <v>67.8</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O6">
-        <v>77.09999999999999</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P6">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -912,38 +912,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_badai.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>63.97435897435897</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N7">
-        <v>43.38461538461539</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O7">
-        <v>53.67948717948718</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -994,38 +994,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>50.58333333333334</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N8">
-        <v>32.11111111111111</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O8">
-        <v>41.34722222222223</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1059,55 +1059,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>61.69230769230769</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N9">
-        <v>39.76923076923077</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O9">
-        <v>50.73076923076923</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1129,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>454</v>
+        <v>373</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1141,50 +1136,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_sltwe.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>72.02500000000001</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N10">
-        <v>46.875</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O10">
-        <v>59.45</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1218,55 +1218,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_9pfbj.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>91.27272727272727</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N11">
-        <v>80.09090909090909</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O11">
-        <v>85.68181818181819</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1288,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>456</v>
+        <v>375</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1317,38 +1312,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>6.621621621621622</v>
+        <v>80.75</v>
       </c>
       <c r="N12">
-        <v>7.135135135135135</v>
+        <v>61.475</v>
       </c>
       <c r="O12">
-        <v>6.878378378378379</v>
+        <v>71.1125</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>457</v>
+        <v>376</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1394,38 +1389,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_ri0yx.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>88.96969696969697</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N13">
-        <v>77.15151515151516</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O13">
-        <v>83.06060606060606</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>458</v>
+        <v>377</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1476,38 +1471,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>65.25</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N14">
-        <v>44.8</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O14">
-        <v>55.025</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P14">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1529,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1541,55 +1536,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>76.27500000000001</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N15">
-        <v>51.925</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O15">
-        <v>64.09999999999999</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1611,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1635,38 +1625,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_fbihy.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>44.39024390243902</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N16">
-        <v>26.90243902439024</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O16">
-        <v>35.64634146341464</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P16">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1688,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1712,38 +1702,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_65cdi.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>46.92307692307692</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N17">
-        <v>27</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O17">
-        <v>36.96153846153846</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1765,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1789,38 +1779,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_9z99v.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>81.15625</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N18">
-        <v>64.78125</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O18">
-        <v>72.96875</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1842,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1854,50 +1844,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_6ddrx.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>82.2</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N19">
-        <v>63.68571428571428</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O19">
-        <v>72.94285714285715</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1919,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1948,20 +1943,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N20">
-        <v>22.26530612244898</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O20">
-        <v>29.63265306122449</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P20">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -1973,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20">
         <v>2</v>
@@ -2001,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2025,38 +2020,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_bntrh.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>76.07894736842105</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N21">
-        <v>53.36842105263158</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O21">
-        <v>64.72368421052632</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P21">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2078,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2090,50 +2085,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_c2pbs.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>21.95238095238095</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N22">
-        <v>14.47619047619048</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O22">
-        <v>18.21428571428572</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P22">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2155,7 +2155,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/catch_09.jpg</t>
+          <t>stimuli/catch_03.jpg</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2209,55 +2209,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>75.10526315789474</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N24">
-        <v>55.76315789473684</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O24">
-        <v>65.43421052631579</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2279,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2291,50 +2286,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_jge7p.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>90.42424242424242</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N25">
-        <v>75.63636363636364</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O25">
-        <v>83.03030303030303</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P25">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2368,50 +2368,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_dmjh8.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>57.48648648648648</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N26">
-        <v>37.64864864864865</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O26">
-        <v>47.56756756756756</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P26">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2433,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2445,32 +2450,37 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_kn0we.png</t>
+          <t>stimuli/img_kzg3h.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>80.15909090909091</v>
+        <v>77.02777777777777</v>
       </c>
       <c r="N27">
-        <v>56.68181818181818</v>
+        <v>56.22222222222222</v>
       </c>
       <c r="O27">
-        <v>68.42045454545455</v>
+        <v>66.625</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -2510,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2522,55 +2532,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_kzg3h.png</t>
+          <t>stimuli/img_bklr1.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>77.02777777777777</v>
+        <v>86.54761904761905</v>
       </c>
       <c r="N28">
-        <v>56.22222222222222</v>
+        <v>67.73809523809524</v>
       </c>
       <c r="O28">
-        <v>66.625</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="P28">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2592,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2604,50 +2609,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_qbdgm.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>76.88095238095238</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N29">
-        <v>60.40476190476191</v>
+        <v>51.925</v>
       </c>
       <c r="O29">
-        <v>68.64285714285714</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2669,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2681,55 +2691,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>32.93023255813954</v>
+        <v>81.15625</v>
       </c>
       <c r="N30">
-        <v>14.04651162790698</v>
+        <v>64.78125</v>
       </c>
       <c r="O30">
-        <v>23.48837209302326</v>
+        <v>72.96875</v>
       </c>
       <c r="P30">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2751,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2763,55 +2768,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>87.28571428571429</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N31">
-        <v>72.65714285714286</v>
+        <v>46.875</v>
       </c>
       <c r="O31">
-        <v>79.97142857142858</v>
+        <v>59.45</v>
       </c>
       <c r="P31">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2833,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2857,38 +2857,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_sfh4b.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>69.06521739130434</v>
+        <v>82.2</v>
       </c>
       <c r="N32">
-        <v>49.54347826086956</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O32">
-        <v>59.30434782608695</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P32">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2910,7 +2910,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2922,55 +2922,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
+          <t>stimuli/img_zv0dq.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>80.19444444444444</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N33">
-        <v>60.25</v>
+        <v>52.71052631578947</v>
       </c>
       <c r="O33">
-        <v>70.22222222222223</v>
+        <v>64.78947368421052</v>
       </c>
       <c r="P33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2992,7 +2987,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3004,50 +2999,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_zv0dq.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>76.86842105263158</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N34">
-        <v>52.71052631578947</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O34">
-        <v>64.78947368421052</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3069,7 +3069,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3098,38 +3098,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>80.75</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N35">
-        <v>61.475</v>
+        <v>60.25</v>
       </c>
       <c r="O35">
-        <v>71.1125</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P35">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q35">
         <v>8</v>
       </c>
       <c r="R35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3163,50 +3163,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_l1h36.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>26.64285714285714</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N36">
-        <v>9.142857142857142</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O36">
-        <v>17.89285714285714</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P36">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3228,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3252,38 +3257,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_bklr1.png</t>
+          <t>stimuli/img_65cdi.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>86.54761904761905</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="N37">
-        <v>67.73809523809524</v>
+        <v>27</v>
       </c>
       <c r="O37">
-        <v>77.14285714285714</v>
+        <v>36.96153846153846</v>
       </c>
       <c r="P37">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3305,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>482</v>
+        <v>401</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3334,38 +3339,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_9pfbj.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>84.79069767441861</v>
+        <v>91.27272727272727</v>
       </c>
       <c r="N38">
-        <v>66.16279069767442</v>
+        <v>80.09090909090909</v>
       </c>
       <c r="O38">
-        <v>75.47674418604652</v>
+        <v>85.68181818181819</v>
       </c>
       <c r="P38">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3387,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3416,20 +3421,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>66.83783783783784</v>
+        <v>65.25</v>
       </c>
       <c r="N39">
-        <v>43.78378378378378</v>
+        <v>44.8</v>
       </c>
       <c r="O39">
-        <v>55.31081081081081</v>
+        <v>55.025</v>
       </c>
       <c r="P39">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -3441,7 +3446,7 @@
         <v>4</v>
       </c>
       <c r="T39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U39">
         <v>4</v>
@@ -3469,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3481,52 +3486,47 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_5p2ql.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>89.19565217391305</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N40">
-        <v>72.52173913043478</v>
+        <v>67.8</v>
       </c>
       <c r="O40">
-        <v>80.85869565217391</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P40">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V40">
         <v>9</v>
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>61.77272727272727</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N42">
-        <v>38.79545454545455</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O42">
-        <v>50.28409090909091</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P42">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
